--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>2064.0195234428</v>
+        <v>2173.49548359713</v>
       </c>
       <c r="R2">
-        <v>2064.0195234428</v>
+        <v>8693.981934388521</v>
       </c>
       <c r="S2">
-        <v>0.01330208315944145</v>
+        <v>0.01318115434558133</v>
       </c>
       <c r="T2">
-        <v>0.01330208315944145</v>
+        <v>0.006822980893163904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>7959.832314781235</v>
+        <v>8447.164277606847</v>
       </c>
       <c r="R3">
-        <v>7959.832314781235</v>
+        <v>50682.98566564108</v>
       </c>
       <c r="S3">
-        <v>0.05129910361013289</v>
+        <v>0.05122779272646282</v>
       </c>
       <c r="T3">
-        <v>0.05129910361013289</v>
+        <v>0.03977567993756029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>11423.94782554576</v>
+        <v>11626.10508677017</v>
       </c>
       <c r="R4">
-        <v>11423.94782554576</v>
+        <v>69756.63052062105</v>
       </c>
       <c r="S4">
-        <v>0.07362445086326302</v>
+        <v>0.07050646607879991</v>
       </c>
       <c r="T4">
-        <v>0.07362445086326302</v>
+        <v>0.05474455327898799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>11385.4357474152</v>
+        <v>11505.25566490266</v>
       </c>
       <c r="R5">
-        <v>11385.4357474152</v>
+        <v>69031.53398941594</v>
       </c>
       <c r="S5">
-        <v>0.07337625027207816</v>
+        <v>0.06977357526111407</v>
       </c>
       <c r="T5">
-        <v>0.07337625027207816</v>
+        <v>0.05417550220257121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>1552.27597956388</v>
+        <v>1700.295449996265</v>
       </c>
       <c r="R6">
-        <v>1552.27597956388</v>
+        <v>10201.77269997759</v>
       </c>
       <c r="S6">
-        <v>0.01000402560733549</v>
+        <v>0.01031143470443235</v>
       </c>
       <c r="T6">
-        <v>0.01000402560733549</v>
+        <v>0.008006285351597512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>3719.801509820208</v>
+        <v>3727.792892704276</v>
       </c>
       <c r="R7">
-        <v>3719.801509820208</v>
+        <v>14911.17157081711</v>
       </c>
       <c r="S7">
-        <v>0.02397317876999022</v>
+        <v>0.02260718453657662</v>
       </c>
       <c r="T7">
-        <v>0.02397317876999022</v>
+        <v>0.01170219118122996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>4042.307268932309</v>
+        <v>4436.480757637846</v>
       </c>
       <c r="R8">
-        <v>4042.307268932309</v>
+        <v>26618.88454582708</v>
       </c>
       <c r="S8">
-        <v>0.02605164671972754</v>
+        <v>0.0269050191541439</v>
       </c>
       <c r="T8">
-        <v>0.02605164671972754</v>
+        <v>0.02089032873821908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>15589.04247758884</v>
+        <v>17242.1254412668</v>
       </c>
       <c r="R9">
-        <v>15589.04247758884</v>
+        <v>155179.1289714012</v>
       </c>
       <c r="S9">
-        <v>0.1004674311738401</v>
+        <v>0.1045647982258878</v>
       </c>
       <c r="T9">
-        <v>0.1004674311738401</v>
+        <v>0.1217835785696461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>22373.38688448061</v>
+        <v>23730.89426363484</v>
       </c>
       <c r="R10">
-        <v>22373.38688448061</v>
+        <v>213578.0483727135</v>
       </c>
       <c r="S10">
-        <v>0.1441908128849952</v>
+        <v>0.143915909836609</v>
       </c>
       <c r="T10">
-        <v>0.1441908128849952</v>
+        <v>0.1676146734883632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>22297.96237826801</v>
+        <v>23484.2196610267</v>
       </c>
       <c r="R11">
-        <v>22297.96237826801</v>
+        <v>211357.9769492403</v>
       </c>
       <c r="S11">
-        <v>0.1437047210421107</v>
+        <v>0.1424199527321885</v>
       </c>
       <c r="T11">
-        <v>0.1437047210421107</v>
+        <v>0.165872375768155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>3040.076125401043</v>
+        <v>3470.597525108918</v>
       </c>
       <c r="R12">
-        <v>3040.076125401043</v>
+        <v>31235.37772598025</v>
       </c>
       <c r="S12">
-        <v>0.01959252079343905</v>
+        <v>0.02104742429652667</v>
       </c>
       <c r="T12">
-        <v>0.01959252079343905</v>
+        <v>0.02451332278160641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>7285.096149212037</v>
+        <v>7609.070992671595</v>
       </c>
       <c r="R13">
-        <v>7285.096149212037</v>
+        <v>45654.42595602957</v>
       </c>
       <c r="S13">
-        <v>0.04695059988565595</v>
+        <v>0.04614517947601153</v>
       </c>
       <c r="T13">
-        <v>0.04695059988565595</v>
+        <v>0.03582929874218388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>10.02166087369793</v>
+        <v>2.709956323736667</v>
       </c>
       <c r="R14">
-        <v>10.02166087369793</v>
+        <v>16.25973794242</v>
       </c>
       <c r="S14">
-        <v>6.458706655801885E-05</v>
+        <v>1.643451888560637E-05</v>
       </c>
       <c r="T14">
-        <v>6.458706655801885E-05</v>
+        <v>1.276053736322684E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>38.64824880007981</v>
+        <v>10.53208825346067</v>
       </c>
       <c r="R15">
-        <v>38.64824880007981</v>
+        <v>94.78879428114601</v>
       </c>
       <c r="S15">
-        <v>0.000249078176667592</v>
+        <v>6.387180553069011E-05</v>
       </c>
       <c r="T15">
-        <v>0.000249078176667592</v>
+        <v>7.438963378888029E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>55.4679496226244</v>
+        <v>14.49565330965267</v>
       </c>
       <c r="R16">
-        <v>55.4679496226244</v>
+        <v>130.460879786874</v>
       </c>
       <c r="S16">
-        <v>0.0003574768892365597</v>
+        <v>8.790882937485986E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003574768892365597</v>
+        <v>0.0001023848561923427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>55.28095769634549</v>
+        <v>14.34497590660245</v>
       </c>
       <c r="R17">
-        <v>55.28095769634549</v>
+        <v>129.104783159422</v>
       </c>
       <c r="S17">
-        <v>0.0003562717736234297</v>
+        <v>8.699504688900471E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003562717736234297</v>
+        <v>0.0001013206003141713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>7.536936193136535</v>
+        <v>2.119961344162667</v>
       </c>
       <c r="R18">
-        <v>7.536936193136535</v>
+        <v>19.079652097464</v>
       </c>
       <c r="S18">
-        <v>4.857364519560208E-05</v>
+        <v>1.285649677901685E-05</v>
       </c>
       <c r="T18">
-        <v>4.857364519560208E-05</v>
+        <v>1.4973587786546E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>18.06116115932212</v>
+        <v>4.647884478897334</v>
       </c>
       <c r="R19">
-        <v>18.06116115932212</v>
+        <v>27.887306873384</v>
       </c>
       <c r="S19">
-        <v>0.0001163996100660115</v>
+        <v>2.818707614491336E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001163996100660115</v>
+        <v>2.188577839186414E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>1866.114502350511</v>
+        <v>11.07376009838</v>
       </c>
       <c r="R20">
-        <v>1866.114502350511</v>
+        <v>66.44256059028001</v>
       </c>
       <c r="S20">
-        <v>0.01202663541374885</v>
+        <v>6.715677218758929E-05</v>
       </c>
       <c r="T20">
-        <v>0.01202663541374885</v>
+        <v>5.214369259351932E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>7196.617255884763</v>
+        <v>43.037527074596</v>
       </c>
       <c r="R21">
-        <v>7196.617255884763</v>
+        <v>387.337743671364</v>
       </c>
       <c r="S21">
-        <v>0.04638037582356396</v>
+        <v>0.000261000904443349</v>
       </c>
       <c r="T21">
-        <v>0.04638037582356396</v>
+        <v>0.0003039801605542227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H22">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I22">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J22">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>10328.58190981996</v>
+        <v>59.233938869924</v>
       </c>
       <c r="R22">
-        <v>10328.58190981996</v>
+        <v>533.1054498293161</v>
       </c>
       <c r="S22">
-        <v>0.06656509491458561</v>
+        <v>0.0003592239766005964</v>
       </c>
       <c r="T22">
-        <v>0.06656509491458561</v>
+        <v>0.0004183777152606656</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H23">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I23">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J23">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>10293.76249716479</v>
+        <v>58.61822215190534</v>
       </c>
       <c r="R23">
-        <v>10293.76249716479</v>
+        <v>527.5639993671481</v>
       </c>
       <c r="S23">
-        <v>0.06634069261730041</v>
+        <v>0.0003554899651178916</v>
       </c>
       <c r="T23">
-        <v>0.06634069261730041</v>
+        <v>0.0004140288207139409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H24">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I24">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J24">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>1403.438622655441</v>
+        <v>8.662849337264001</v>
       </c>
       <c r="R24">
-        <v>1403.438622655441</v>
+        <v>77.96564403537602</v>
       </c>
       <c r="S24">
-        <v>0.009044806531963023</v>
+        <v>5.253581387618786E-05</v>
       </c>
       <c r="T24">
-        <v>0.009044806531963023</v>
+        <v>6.118693408741289E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H25">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I25">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J25">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>3363.134633417719</v>
+        <v>18.992762810776</v>
       </c>
       <c r="R25">
-        <v>3363.134633417719</v>
+        <v>113.956576864656</v>
       </c>
       <c r="S25">
-        <v>0.02167455106989443</v>
+        <v>0.0001151815312924104</v>
       </c>
       <c r="T25">
-        <v>0.02167455106989443</v>
+        <v>8.943238581189871E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H26">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I26">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J26">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>422.2408172717266</v>
+        <v>2062.646636171672</v>
       </c>
       <c r="R26">
-        <v>422.2408172717266</v>
+        <v>12375.87981703003</v>
       </c>
       <c r="S26">
-        <v>0.002721235143788931</v>
+        <v>0.0125089119701214</v>
       </c>
       <c r="T26">
-        <v>0.002721235143788931</v>
+        <v>0.009712510580875468</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H27">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I27">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J27">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>1628.359646682513</v>
+        <v>8016.356654010337</v>
       </c>
       <c r="R27">
-        <v>1628.359646682513</v>
+        <v>72147.20988609304</v>
       </c>
       <c r="S27">
-        <v>0.01049436557534082</v>
+        <v>0.04861516167996038</v>
       </c>
       <c r="T27">
-        <v>0.01049436557534082</v>
+        <v>0.05662066453126591</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H28">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I28">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J28">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>2337.021046332986</v>
+        <v>11033.17063687526</v>
       </c>
       <c r="R28">
-        <v>2337.021046332986</v>
+        <v>99298.53573187739</v>
       </c>
       <c r="S28">
-        <v>0.01506150884262591</v>
+        <v>0.06691061756664086</v>
       </c>
       <c r="T28">
-        <v>0.01506150884262591</v>
+        <v>0.07792884976421387</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H29">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I29">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J29">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>2329.142549468017</v>
+        <v>10918.48456764738</v>
       </c>
       <c r="R29">
-        <v>2329.142549468017</v>
+        <v>98266.36110882637</v>
       </c>
       <c r="S29">
-        <v>0.01501073392539334</v>
+        <v>0.06621510437547518</v>
       </c>
       <c r="T29">
-        <v>0.01501073392539334</v>
+        <v>0.07711880578383368</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H30">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I30">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J30">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>317.5523636273815</v>
+        <v>1613.579930071231</v>
       </c>
       <c r="R30">
-        <v>317.5523636273815</v>
+        <v>14522.21937064108</v>
       </c>
       <c r="S30">
-        <v>0.002046544570180604</v>
+        <v>0.00978554879350443</v>
       </c>
       <c r="T30">
-        <v>0.002046544570180604</v>
+        <v>0.01139694400563392</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>3537.674464248559</v>
+      </c>
+      <c r="R31">
+        <v>21226.04678549135</v>
+      </c>
+      <c r="S31">
+        <v>0.02145421211573368</v>
+      </c>
+      <c r="T31">
+        <v>0.01665806448043841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.989415</v>
+      </c>
+      <c r="N32">
+        <v>29.97883</v>
+      </c>
+      <c r="O32">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P32">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q32">
+        <v>461.00878174113</v>
+      </c>
+      <c r="R32">
+        <v>1844.03512696452</v>
+      </c>
+      <c r="S32">
+        <v>0.002795785844809507</v>
+      </c>
+      <c r="T32">
+        <v>0.001447186862424383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.255493</v>
+      </c>
+      <c r="N33">
+        <v>174.766479</v>
+      </c>
+      <c r="O33">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P33">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q33">
+        <v>1791.683922131646</v>
+      </c>
+      <c r="R33">
+        <v>10750.10353278988</v>
+      </c>
+      <c r="S33">
+        <v>0.0108656597146586</v>
+      </c>
+      <c r="T33">
+        <v>0.008436611849127097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>80.178917</v>
+      </c>
+      <c r="N34">
+        <v>240.536751</v>
+      </c>
+      <c r="O34">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P34">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q34">
+        <v>2465.952463621374</v>
+      </c>
+      <c r="R34">
+        <v>14795.71478172824</v>
+      </c>
+      <c r="S34">
+        <v>0.01495475848795676</v>
+      </c>
+      <c r="T34">
+        <v>0.01161158143854997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N35">
+        <v>238.036453</v>
+      </c>
+      <c r="O35">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P35">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q35">
+        <v>2440.319723562922</v>
+      </c>
+      <c r="R35">
+        <v>14641.91834137753</v>
+      </c>
+      <c r="S35">
+        <v>0.01479930884218549</v>
+      </c>
+      <c r="T35">
+        <v>0.01149088298508311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q31">
-        <v>760.9676225228857</v>
-      </c>
-      <c r="R31">
-        <v>760.9676225228857</v>
-      </c>
-      <c r="S31">
-        <v>0.004904243628256744</v>
-      </c>
-      <c r="T31">
-        <v>0.004904243628256744</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.726012</v>
+      </c>
+      <c r="N36">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P36">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q36">
+        <v>360.6407926394641</v>
+      </c>
+      <c r="R36">
+        <v>2163.844755836784</v>
+      </c>
+      <c r="S36">
+        <v>0.002187104591184274</v>
+      </c>
+      <c r="T36">
+        <v>0.001698171394450417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.708558</v>
+      </c>
+      <c r="N37">
+        <v>51.417116</v>
+      </c>
+      <c r="O37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q37">
+        <v>790.682692013076</v>
+      </c>
+      <c r="R37">
+        <v>3162.730768052304</v>
+      </c>
+      <c r="S37">
+        <v>0.004795091906312835</v>
+      </c>
+      <c r="T37">
+        <v>0.002482090687960489</v>
       </c>
     </row>
   </sheetData>
